--- a/API/Model/GenerateExcel/Templates/Educational Attainment.xlsx
+++ b/API/Model/GenerateExcel/Templates/Educational Attainment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9726F1-B427-4CAC-8425-27A4862E0DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D918572-0FEC-4879-931D-7883F5800C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -53,20 +53,21 @@
     <t xml:space="preserve">Year Started	</t>
   </si>
   <si>
-    <t xml:space="preserve">Year Ended	</t>
-  </si>
-  <si>
     <t>Alma Mater</t>
   </si>
   <si>
     <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year
+Ended	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,27 +91,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -141,21 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,6 +160,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>474911</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3EEB8D-1DAB-05C1-893B-5E889DBFF075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1197722" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,212 +537,76 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:F31"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -717,6 +615,7 @@
     <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>